--- a/Docs/BEA (Autosaved).xlsx
+++ b/Docs/BEA (Autosaved).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaAnhTU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\CSDLPT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706320E7-08FF-4FCD-86F2-211C4D7303A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,16 @@
     <sheet name="Clustered_Affinity_Matrix" sheetId="5" r:id="rId5"/>
     <sheet name="Step 3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -227,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,12 +300,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -420,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,33 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,6 +615,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,110 +990,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="3" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="50">
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="50">
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="50">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="50">
         <v>3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50">
         <v>28563</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="50">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="50">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="50">
+        <v>0</v>
+      </c>
+      <c r="G4" s="50">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="50">
         <v>8</v>
       </c>
-      <c r="K4" s="1">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50">
         <v>29378</v>
       </c>
     </row>
@@ -1031,49 +1123,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1092,12 +1184,12 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="50">
-        <v>9</v>
-      </c>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="41">
+        <v>9</v>
+      </c>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1116,10 +1208,10 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="50">
-        <v>15</v>
-      </c>
-      <c r="H4" s="50"/>
+      <c r="G4" s="41">
+        <v>15</v>
+      </c>
+      <c r="H4" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1137,45 +1229,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1196,15 +1288,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1223,15 +1315,15 @@
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1255,10 +1347,10 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,10 +1375,10 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1307,6 +1399,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="S3:T4"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="S6:T6"/>
@@ -1315,157 +1412,152 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="53">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="50">
         <f>Affinity_Matrix!G3*Affinity_Matrix!C3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="50">
         <f>Affinity_Matrix!D3*Affinity_Matrix!G3</f>
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="50">
         <f>Affinity_Matrix!E3*Affinity_Matrix!G3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="50">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="53">
+        <v>15</v>
+      </c>
+      <c r="D4" s="50">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <v>15</v>
+      </c>
+      <c r="F4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="50">
         <f>D3</f>
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="50">
+        <v>0</v>
+      </c>
+      <c r="D5" s="53">
+        <v>9</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="50">
         <f>E3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="50">
         <f>E4</f>
         <v>15</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="50">
+        <v>0</v>
+      </c>
+      <c r="E6" s="53">
+        <v>15</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="50">
         <f>F3</f>
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="C7" s="50">
+        <v>0</v>
+      </c>
+      <c r="D7" s="50">
+        <v>0</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53">
         <v>9</v>
       </c>
     </row>
@@ -1482,29 +1574,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1608,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1594,40 +1686,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="1">
         <f>SUM(D3:D7)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1730,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1742,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1754,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +1766,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1690,7 +1782,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1800,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1722,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1778,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1881,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +1890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1807,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1908,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1825,7 +1917,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1850,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1864,7 +1956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1878,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1906,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
@@ -1917,7 +2009,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +2036,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
@@ -1964,7 +2056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
@@ -2034,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>27</v>
       </c>
@@ -2045,7 +2137,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>29</v>
       </c>
@@ -2054,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>31</v>
       </c>
@@ -2072,25 +2164,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="10" t="s">
         <v>14</v>
@@ -2103,7 +2195,7 @@
       </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2210,7 @@
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
@@ -2133,7 +2225,7 @@
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2240,7 @@
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>3</v>
       </c>
@@ -2163,7 +2255,7 @@
       </c>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>4</v>
       </c>
@@ -2178,32 +2270,32 @@
       </c>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>53</v>
       </c>
@@ -2212,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
@@ -2223,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2279,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>27</v>
       </c>
@@ -2304,7 +2396,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>29</v>
       </c>
@@ -2313,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>28</v>
       </c>
@@ -2322,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>31</v>
       </c>
@@ -2331,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>54</v>
       </c>
@@ -2340,7 +2432,7 @@
         <v>-486</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C82" s="10" t="s">
         <v>14</v>
       </c>
@@ -2351,7 +2443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>14</v>
       </c>
@@ -2393,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>15</v>
       </c>
@@ -2407,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>16</v>
       </c>
@@ -2421,7 +2513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>27</v>
       </c>
@@ -2432,7 +2524,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>28</v>
       </c>
@@ -2450,7 +2542,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +2551,7 @@
         <v>-486</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +2560,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C94" s="10" t="s">
         <v>11</v>
       </c>
@@ -2479,7 +2571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>11</v>
       </c>
@@ -2493,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2507,7 +2599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>27</v>
       </c>
@@ -2560,7 +2652,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>29</v>
       </c>
@@ -2569,7 +2661,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>31</v>
       </c>
@@ -2587,7 +2679,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>55</v>
       </c>
@@ -2596,7 +2688,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C106" s="10" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>12</v>
       </c>
@@ -2635,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>14</v>
       </c>
@@ -2649,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>15</v>
       </c>
@@ -2663,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>16</v>
       </c>
@@ -2677,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>27</v>
       </c>
@@ -2688,7 +2780,7 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>29</v>
       </c>
@@ -2697,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>28</v>
       </c>
@@ -2706,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>31</v>
       </c>
@@ -2715,25 +2807,25 @@
         <v>900</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="10" t="s">
         <v>14</v>
@@ -2749,7 +2841,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2859,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
         <v>1</v>
       </c>
@@ -2785,7 +2877,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>2</v>
       </c>
@@ -2803,7 +2895,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>3</v>
       </c>
@@ -2821,7 +2913,7 @@
       </c>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>4</v>
       </c>
@@ -2839,37 +2931,37 @@
       </c>
       <c r="I127" s="10"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>57</v>
       </c>
@@ -2878,7 +2970,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>26</v>
       </c>
@@ -2889,7 +2981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>11</v>
       </c>
@@ -2903,7 +2995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>12</v>
       </c>
@@ -2917,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>14</v>
       </c>
@@ -2931,7 +3023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>16</v>
       </c>
@@ -2959,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>27</v>
       </c>
@@ -2970,7 +3062,7 @@
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>29</v>
       </c>
@@ -2979,7 +3071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
         <v>28</v>
       </c>
@@ -2988,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>31</v>
       </c>
@@ -2997,7 +3089,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>58</v>
       </c>
@@ -3006,7 +3098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C150" s="10" t="s">
         <v>14</v>
       </c>
@@ -3018,7 +3110,7 @@
       </c>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3125,7 @@
       </c>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3140,7 @@
       </c>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>14</v>
       </c>
@@ -3063,7 +3155,7 @@
       </c>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>15</v>
       </c>
@@ -3078,7 +3170,7 @@
       </c>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>16</v>
       </c>
@@ -3093,7 +3185,7 @@
       </c>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
         <v>27</v>
       </c>
@@ -3104,7 +3196,7 @@
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>29</v>
       </c>
@@ -3113,7 +3205,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
         <v>28</v>
       </c>
@@ -3122,7 +3214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>31</v>
       </c>
@@ -3131,7 +3223,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
         <v>34</v>
       </c>
@@ -3140,7 +3232,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C162" s="10" t="s">
         <v>11</v>
       </c>
@@ -3151,7 +3243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>11</v>
       </c>
@@ -3165,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>14</v>
       </c>
@@ -3193,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>15</v>
       </c>
@@ -3207,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>16</v>
       </c>
@@ -3221,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
         <v>27</v>
       </c>
@@ -3232,7 +3324,7 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
         <v>29</v>
       </c>
@@ -3241,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
         <v>28</v>
       </c>
@@ -3250,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>31</v>
       </c>
@@ -3259,7 +3351,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
         <v>51</v>
       </c>
@@ -3268,7 +3360,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C174" s="10" t="s">
         <v>12</v>
       </c>
@@ -3279,7 +3371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>11</v>
       </c>
@@ -3293,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>12</v>
       </c>
@@ -3307,7 +3399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>15</v>
       </c>
@@ -3335,7 +3427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>16</v>
       </c>
@@ -3349,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
         <v>27</v>
       </c>
@@ -3360,7 +3452,7 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>29</v>
       </c>
@@ -3369,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
         <v>28</v>
       </c>
@@ -3378,7 +3470,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>31</v>
       </c>
@@ -3387,7 +3479,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
         <v>59</v>
       </c>
@@ -3396,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C186" s="10" t="s">
         <v>15</v>
       </c>
@@ -3407,7 +3499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>12</v>
       </c>
@@ -3435,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
@@ -3449,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>15</v>
       </c>
@@ -3463,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>16</v>
       </c>
@@ -3477,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
         <v>27</v>
       </c>
@@ -3488,7 +3580,7 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>28</v>
       </c>
@@ -3506,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>31</v>
       </c>
@@ -3515,20 +3607,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B202" s="12"/>
       <c r="C202" s="10" t="s">
         <v>14</v>
@@ -3546,7 +3638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B203" s="11" t="s">
         <v>11</v>
       </c>
@@ -3572,7 +3664,7 @@
       <c r="P203" s="10"/>
       <c r="Q203" s="10"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B204" s="11" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3690,7 @@
       <c r="P204" s="10"/>
       <c r="Q204" s="10"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B205" s="11" t="s">
         <v>14</v>
       </c>
@@ -3624,7 +3716,7 @@
       <c r="P205" s="10"/>
       <c r="Q205" s="10"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B206" s="11" t="s">
         <v>15</v>
       </c>
@@ -3650,7 +3742,7 @@
       <c r="P206" s="10"/>
       <c r="Q206" s="10"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B207" s="11" t="s">
         <v>16</v>
       </c>
@@ -3676,7 +3768,7 @@
       <c r="P207" s="10"/>
       <c r="Q207" s="10"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L208" s="10"/>
       <c r="M208" s="10"/>
       <c r="N208" s="10"/>
@@ -3684,126 +3776,126 @@
       <c r="P208" s="10"/>
       <c r="Q208" s="10"/>
     </row>
-    <row r="209" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B210" s="31"/>
-      <c r="C210" s="32" t="s">
+    <row r="210" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B210" s="54"/>
+      <c r="C210" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D210" s="32" t="s">
+      <c r="D210" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E210" s="32" t="s">
+      <c r="E210" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F210" s="32" t="s">
+      <c r="F210" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B211" s="34" t="s">
+      <c r="G210" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B211" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C211" s="35">
-        <v>9</v>
-      </c>
-      <c r="D211" s="35">
-        <v>9</v>
-      </c>
-      <c r="E211" s="35">
-        <v>0</v>
-      </c>
-      <c r="F211" s="35">
-        <v>0</v>
-      </c>
-      <c r="G211" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B212" s="34" t="s">
+      <c r="C211" s="59">
+        <v>9</v>
+      </c>
+      <c r="D211" s="59">
+        <v>9</v>
+      </c>
+      <c r="E211" s="59">
+        <v>0</v>
+      </c>
+      <c r="F211" s="59">
+        <v>0</v>
+      </c>
+      <c r="G211" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B212" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C212" s="35">
-        <v>9</v>
-      </c>
-      <c r="D212" s="35">
+      <c r="C212" s="59">
+        <v>9</v>
+      </c>
+      <c r="D212" s="59">
         <v>18</v>
       </c>
-      <c r="E212" s="35">
-        <v>9</v>
-      </c>
-      <c r="F212" s="35">
-        <v>0</v>
-      </c>
-      <c r="G212" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B213" s="34" t="s">
+      <c r="E212" s="59">
+        <v>9</v>
+      </c>
+      <c r="F212" s="59">
+        <v>0</v>
+      </c>
+      <c r="G212" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B213" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C213" s="35">
-        <v>0</v>
-      </c>
-      <c r="D213" s="35">
-        <v>9</v>
-      </c>
-      <c r="E213" s="35">
-        <v>9</v>
-      </c>
-      <c r="F213" s="35">
-        <v>0</v>
-      </c>
-      <c r="G213" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B214" s="34" t="s">
+      <c r="C213" s="59">
+        <v>0</v>
+      </c>
+      <c r="D213" s="59">
+        <v>9</v>
+      </c>
+      <c r="E213" s="59">
+        <v>9</v>
+      </c>
+      <c r="F213" s="59">
+        <v>0</v>
+      </c>
+      <c r="G213" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B214" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C214" s="35">
-        <v>0</v>
-      </c>
-      <c r="D214" s="35">
-        <v>0</v>
-      </c>
-      <c r="E214" s="35">
-        <v>0</v>
-      </c>
-      <c r="F214" s="35">
-        <v>15</v>
-      </c>
-      <c r="G214" s="36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B215" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C215" s="38">
-        <v>0</v>
-      </c>
-      <c r="D215" s="38">
-        <v>0</v>
-      </c>
-      <c r="E215" s="38">
-        <v>0</v>
-      </c>
-      <c r="F215" s="38">
-        <v>15</v>
-      </c>
-      <c r="G215" s="39">
+      <c r="C214" s="59">
+        <v>0</v>
+      </c>
+      <c r="D214" s="59">
+        <v>0</v>
+      </c>
+      <c r="E214" s="59">
+        <v>0</v>
+      </c>
+      <c r="F214" s="59">
+        <v>15</v>
+      </c>
+      <c r="G214" s="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="61">
+        <v>0</v>
+      </c>
+      <c r="D215" s="61">
+        <v>0</v>
+      </c>
+      <c r="E215" s="61">
+        <v>0</v>
+      </c>
+      <c r="F215" s="61">
+        <v>15</v>
+      </c>
+      <c r="G215" s="62">
         <v>15</v>
       </c>
     </row>
@@ -3822,23 +3914,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.109375" style="1"/>
+    <col min="3" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3846,7 +3938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>14</v>
@@ -3863,28 +3955,28 @@
       <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="55" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="57"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="P2" s="48"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -3903,16 +3995,16 @@
       <c r="F3" s="20">
         <v>0</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="58"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="I3" s="32"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -3931,30 +4023,30 @@
       <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="34">
         <v>1</v>
       </c>
-      <c r="K4" s="43">
-        <v>0</v>
-      </c>
-      <c r="L4" s="43">
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="34">
         <v>1</v>
       </c>
-      <c r="M4" s="43">
-        <v>0</v>
-      </c>
-      <c r="N4" s="43">
+      <c r="M4" s="34">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34">
         <v>1</v>
       </c>
-      <c r="O4" s="51">
-        <v>9</v>
-      </c>
-      <c r="P4" s="52"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O4" s="42">
+        <v>9</v>
+      </c>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
@@ -3973,30 +4065,30 @@
       <c r="F5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="45">
-        <v>0</v>
-      </c>
-      <c r="K5" s="45">
+      <c r="I5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="36">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
-      <c r="L5" s="45">
-        <v>0</v>
-      </c>
-      <c r="M5" s="45">
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36">
         <v>1</v>
       </c>
-      <c r="N5" s="45">
-        <v>0</v>
-      </c>
-      <c r="O5" s="53">
-        <v>15</v>
-      </c>
-      <c r="P5" s="54"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="N5" s="36">
+        <v>0</v>
+      </c>
+      <c r="O5" s="44">
+        <v>15</v>
+      </c>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
@@ -4016,8 +4108,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="21">
@@ -4036,13 +4128,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
         <v>14</v>
@@ -4060,7 +4152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
@@ -4080,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4100,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
@@ -4120,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
@@ -4133,14 +4225,14 @@
       <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="37">
         <v>15</v>
       </c>
       <c r="F15" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
@@ -4160,7 +4252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>42</v>
       </c>
@@ -4177,7 +4269,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>43</v>
       </c>
@@ -4194,7 +4286,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>44</v>
       </c>
@@ -4211,7 +4303,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>45</v>
       </c>
@@ -4229,7 +4321,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -4241,13 +4333,13 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
         <v>14</v>
@@ -4265,7 +4357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>14</v>
       </c>
@@ -4285,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
@@ -4325,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>15</v>
       </c>
@@ -4365,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>42</v>
       </c>
@@ -4382,7 +4474,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>43</v>
       </c>
@@ -4399,7 +4491,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>44</v>
       </c>
@@ -4416,7 +4508,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>45</v>
       </c>
@@ -4434,13 +4526,13 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="14" t="s">
         <v>14</v>
@@ -4458,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>14</v>
       </c>
@@ -4478,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>11</v>
       </c>
@@ -4498,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>16</v>
       </c>
@@ -4518,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>15</v>
       </c>
@@ -4558,7 +4650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>42</v>
       </c>
@@ -4575,7 +4667,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>43</v>
       </c>
@@ -4592,7 +4684,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>44</v>
       </c>
@@ -4609,7 +4701,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>45</v>
       </c>
@@ -4627,177 +4719,177 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="51" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-    </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17" t="s">
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+    </row>
+    <row r="55" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B55" s="63"/>
+      <c r="C55" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="G55" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-    </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B56" s="17" t="s">
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+    </row>
+    <row r="56" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B56" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="25">
-        <v>9</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
-        <v>0</v>
-      </c>
-      <c r="F56" s="19">
-        <v>9</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="47"/>
-    </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B57" s="17" t="s">
+      <c r="C56" s="64">
+        <v>9</v>
+      </c>
+      <c r="D56" s="64">
+        <v>0</v>
+      </c>
+      <c r="E56" s="65">
+        <v>0</v>
+      </c>
+      <c r="F56" s="65">
+        <v>0</v>
+      </c>
+      <c r="G56" s="65">
+        <v>9</v>
+      </c>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B57" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="25">
-        <v>0</v>
-      </c>
-      <c r="D57" s="25">
-        <v>15</v>
-      </c>
-      <c r="E57" s="19">
-        <v>0</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0</v>
-      </c>
-      <c r="G57" s="19">
-        <v>15</v>
-      </c>
-      <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B58" s="17" t="s">
+      <c r="C57" s="64">
+        <v>0</v>
+      </c>
+      <c r="D57" s="64">
+        <v>15</v>
+      </c>
+      <c r="E57" s="65">
+        <v>15</v>
+      </c>
+      <c r="F57" s="65">
+        <v>0</v>
+      </c>
+      <c r="G57" s="65">
+        <v>0</v>
+      </c>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B58" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="65">
+        <v>0</v>
+      </c>
+      <c r="D58" s="65">
+        <v>15</v>
+      </c>
+      <c r="E58" s="65">
+        <v>15</v>
+      </c>
+      <c r="F58" s="65">
+        <v>0</v>
+      </c>
+      <c r="G58" s="65">
+        <v>0</v>
+      </c>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B59" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="19">
-        <v>0</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0</v>
-      </c>
-      <c r="E58" s="19">
-        <v>9</v>
-      </c>
-      <c r="F58" s="19">
-        <v>9</v>
-      </c>
-      <c r="G58" s="19">
-        <v>0</v>
-      </c>
-      <c r="I58" s="47"/>
-    </row>
-    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B59" s="17" t="s">
+      <c r="C59" s="65">
+        <v>0</v>
+      </c>
+      <c r="D59" s="65">
+        <v>0</v>
+      </c>
+      <c r="E59" s="65">
+        <v>0</v>
+      </c>
+      <c r="F59" s="65">
+        <v>9</v>
+      </c>
+      <c r="G59" s="65">
+        <v>9</v>
+      </c>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B60" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="19">
-        <v>9</v>
-      </c>
-      <c r="D59" s="19">
-        <v>0</v>
-      </c>
-      <c r="E59" s="19">
-        <v>9</v>
-      </c>
-      <c r="F59" s="19">
+      <c r="C60" s="65">
+        <v>9</v>
+      </c>
+      <c r="D60" s="65">
+        <v>0</v>
+      </c>
+      <c r="E60" s="65">
+        <v>0</v>
+      </c>
+      <c r="F60" s="65">
+        <v>9</v>
+      </c>
+      <c r="G60" s="65">
         <v>18</v>
       </c>
-      <c r="G59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="47"/>
-    </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B60" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="19">
-        <v>0</v>
-      </c>
-      <c r="D60" s="19">
-        <v>15</v>
-      </c>
-      <c r="E60" s="19">
-        <v>0</v>
-      </c>
-      <c r="F60" s="19">
-        <v>0</v>
-      </c>
-      <c r="G60" s="19">
-        <v>15</v>
-      </c>
-      <c r="I60" s="47"/>
-    </row>
-    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="1:19" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:19" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
         <v>49</v>
       </c>
@@ -4808,10 +4900,10 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-    </row>
-    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -4824,44 +4916,337 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-    </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+    </row>
+    <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="43"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="47"/>
-    </row>
-    <row r="65" spans="5:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="E65" s="43"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="38"/>
+    </row>
+    <row r="65" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="34"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="47"/>
-    </row>
-    <row r="66" spans="5:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="E66" s="43"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+    </row>
+    <row r="66" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E66" s="34"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="5:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="E67" s="43"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+    </row>
+    <row r="67" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E67" s="34"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="43"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+    </row>
+    <row r="68" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H68" s="38"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+    </row>
+    <row r="69" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H69" s="38"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="66"/>
+      <c r="T69" s="66"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+    </row>
+    <row r="70" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H70" s="38"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+    </row>
+    <row r="71" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H71" s="38"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+    </row>
+    <row r="72" spans="5:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H72" s="38"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="66"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="66"/>
+      <c r="T72" s="66"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+    </row>
+    <row r="73" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+    </row>
+    <row r="74" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+    </row>
+    <row r="75" spans="5:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="67"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="68"/>
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+    </row>
+    <row r="76" spans="5:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="69"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+    </row>
+    <row r="77" spans="5:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="69"/>
+      <c r="T77" s="69"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+    </row>
+    <row r="78" spans="5:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
+      <c r="S78" s="69"/>
+      <c r="T78" s="69"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+    </row>
+    <row r="79" spans="5:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+    </row>
+    <row r="80" spans="5:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="69"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+    </row>
+    <row r="81" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+    </row>
+    <row r="82" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
